--- a/predictions/single/Neuropatía.xlsx
+++ b/predictions/single/Neuropatía.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.06744998667811081</v>
+        <v>0.06668123722961587</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9987678484788289</v>
+        <v>0.9987818917106962</v>
       </c>
     </row>
   </sheetData>
